--- a/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
+++ b/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkosc\Documents\SSVC Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CF864A-2AA8-42A9-AC51-AC6021C1D455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36754E45-A6CF-4779-923C-F129673508A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBF29CAD-9845-4CA7-B904-11B051B72DD1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="273">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -1590,13 +1590,70 @@
   </si>
   <si>
     <t>NVD is only using a subset of CWE for mapping instead of the entire CWE, and the weakness type is not covered by that subset.</t>
+  </si>
+  <si>
+    <t>Reason for not PoC</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Configuration</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Data Processing Errors</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: DEPRECATED: Pathname Traversal and Equivalence Errors</t>
+  </si>
+  <si>
+    <t>Prohibited - Category</t>
+  </si>
+  <si>
+    <t>Prohibited - Category and Depreciated</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Numeric Errors</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Cryptographic Issues</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: User Interface Security Issues</t>
+  </si>
+  <si>
+    <t>CWE-391: Unchecked Error Condition</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Resource Management Errors</t>
+  </si>
+  <si>
+    <t>PHP External Variable Modification</t>
+  </si>
+  <si>
+    <t>Use of Persistent Cookies Containing Sensitive Information</t>
+  </si>
+  <si>
+    <t>CWE VIEW: Weaknesses Introduced During Design</t>
+  </si>
+  <si>
+    <t>CWE CATEGORY: Business Logic Errors</t>
+  </si>
+  <si>
+    <t>CWE VIEW: Weaknesses in OWASP Top Ten (2017)</t>
+  </si>
+  <si>
+    <t>Prohibited - Potential Deprecation</t>
+  </si>
+  <si>
+    <t>Prohibited - View</t>
+  </si>
+  <si>
+    <t>not enough info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +1699,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1664,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1676,14 +1739,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1703,6 +1760,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2050,25 +2116,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2080,2807 +2147,3187 @@
       <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="C2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>22</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>73</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="C5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="C6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>77</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>78</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>79</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>88</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>89</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>91</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="C13" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>115</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="C14" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>116</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="C15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>119</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="C16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>120</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="C17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>122</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="C18" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>125</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="C19" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>129</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="C20" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>131</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="C21" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>134</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="C22" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>178</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="C23" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>190</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="C24" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>191</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="C25" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>193</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="C26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>194</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="C27" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>200</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="C28" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>201</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="C29" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>203</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="C30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>209</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="C31" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="H31" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>212</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="C32" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>252</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="C33" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>257</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="C34" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>264</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="C35" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>269</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="C36" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>273</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="C37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>275</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="C38" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>276</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="C39" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="H39" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>280</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="C40" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>281</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="C41" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>284</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="C42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>287</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="C43" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>290</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="C44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>294</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="C45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="G45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="H45" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>295</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="C46" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>305</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="C47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>306</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="C48" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>307</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="C49" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="G49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H49" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>311</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="C50" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>312</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="C51" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="G51" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="H51" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>319</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="17" t="s">
+      <c r="C52" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="H52" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>321</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="C53" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>326</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="C54" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>327</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+      <c r="C55" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>330</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" s="17" t="s">
+      <c r="C56" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="G56" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="H56" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>331</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="17" t="s">
+      <c r="C57" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="H57" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>335</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="C58" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>337</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+      <c r="C59" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>338</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
+      <c r="C60" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>345</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
+      <c r="C61" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>346</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="C62" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>347</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
+      <c r="C63" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>352</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="C64" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="G64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="H64" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>354</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
+      <c r="C65" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>362</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="C66" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>367</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
+      <c r="C67" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>369</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
+      <c r="C68" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>384</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="C69" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>388</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+      <c r="C70" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>400</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
+      <c r="C71" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>401</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
+      <c r="C72" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>404</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="C73" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>405</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
+      <c r="C74" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>407</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="9">
+      <c r="C75" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>415</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+      <c r="C76" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>416</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
+      <c r="C77" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>425</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="17" t="s">
+      <c r="C78" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="G78" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="H78" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>426</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="17" t="s">
+      <c r="C79" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="G79" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="H79" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>427</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="17" t="s">
+      <c r="C80" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="G80" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="H80" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>428</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="17" t="s">
+      <c r="C81" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="G81" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="H81" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="9">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>434</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="17" t="s">
+      <c r="C82" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="G82" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="H82" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>436</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="C83" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>441</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+      <c r="C84" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>444</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="17" t="s">
+      <c r="C85" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="G85" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="H85" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>451</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="9">
+      <c r="C86" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>459</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
+      <c r="C87" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>470</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="9">
+      <c r="C88" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>476</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="9">
+      <c r="C89" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>494</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+      <c r="C90" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>502</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="C91" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>521</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E92" s="17" t="s">
+      <c r="C92" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="G92" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="H92" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>522</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="17" t="s">
+      <c r="C93" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="G93" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="H93" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>532</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="17" t="s">
+      <c r="C94" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="G94" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="H94" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>552</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="9">
+      <c r="C95" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>565</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="C96" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>592</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="9">
+      <c r="C97" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>601</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="C98" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>602</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
+      <c r="C99" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>610</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="9">
+      <c r="C100" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>611</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="17" t="s">
+      <c r="C101" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="G101" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="H101" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="9">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>613</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
+      <c r="C102" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>617</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="9">
+      <c r="C103" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>639</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E104" s="17" t="s">
+      <c r="C104" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="G104" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="H104" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="9">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>640</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
+      <c r="C105" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>662</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="9">
+      <c r="C106" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>665</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
+      <c r="C107" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>667</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="9">
+      <c r="C108" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>668</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="9">
+      <c r="C109" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>669</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="9">
+      <c r="C110" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>670</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="9">
+      <c r="C111" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>672</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="9">
+      <c r="C112" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>674</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="9">
+      <c r="C113" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>681</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+      <c r="C114" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>682</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C115" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="9">
+      <c r="C115" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>697</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="C116" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>703</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="9">
+      <c r="C117" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>704</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="9">
+      <c r="C118" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>706</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D119" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="9">
+      <c r="C119" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>732</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="C120" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>749</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="9">
+      <c r="C121" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>754</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C122" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="9">
+      <c r="C122" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>755</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
+      <c r="C123" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>759</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="9">
+      <c r="C124" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>763</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D125" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="9">
+      <c r="C125" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>770</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="9">
+      <c r="C126" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>772</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="9">
+      <c r="C127" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>776</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="17" t="s">
+      <c r="C128" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="G128" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G128" s="15" t="s">
+      <c r="H128" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="9">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>787</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C129" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
+      <c r="C129" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>789</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C130" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="9">
+      <c r="C130" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>798</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E131" s="17" t="s">
+      <c r="C131" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F131" s="13" t="s">
+      <c r="G131" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="H131" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="11">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>823</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="9">
+      <c r="C132" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>824</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C133" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="9">
+      <c r="C133" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>829</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="9">
+      <c r="C134" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>834</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C135" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="9">
+      <c r="C135" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>835</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C136" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="9">
+      <c r="C136" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>838</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C137" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="9">
+      <c r="C137" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>843</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C138" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="9">
+      <c r="C138" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>862</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="9">
+      <c r="C139" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>863</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
+      <c r="C140" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>908</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C141" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="9">
+      <c r="C141" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>909</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="9">
+      <c r="C142" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>913</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="9">
+      <c r="C143" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>916</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" s="17" t="s">
+      <c r="C144" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="G144" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G144" s="14" t="s">
+      <c r="H144" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="9">
+    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>917</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E145" s="12"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="9">
+      <c r="C145" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>918</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E146" s="12" t="s">
+      <c r="C146" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F146" s="13" t="s">
+      <c r="G146" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="H146" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="9">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>920</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C147" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="9">
+      <c r="C147" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>922</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E148" s="12"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="9">
+      <c r="C148" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>924</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="9">
+      <c r="C149" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
         <v>1021</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="9">
+      <c r="C150" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>1188</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="17" t="s">
+      <c r="C151" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="G151" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G151" s="13"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="9">
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>1236</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C152" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="17" t="s">
+      <c r="C152" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="G152" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G152" s="14" t="s">
+      <c r="H152" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="9">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>1284</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C153" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="9">
+      <c r="C153" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>1321</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C154" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="17" t="s">
+      <c r="C154" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F154" s="13" t="s">
+      <c r="G154" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G154" s="15" t="s">
+      <c r="H154" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="9">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>1333</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E155" s="17" t="s">
+      <c r="C155" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F155" s="13" t="s">
+      <c r="G155" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="H155" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="20" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>250</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C156" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
+      <c r="C156" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>251</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C157" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>176</v>
+      <c r="C157" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>21</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>189</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>310</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C162" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>355</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>391</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>399</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>473</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>539</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>701</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>840</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1026</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G157" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G157">
+  <autoFilter ref="A1:H157" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H157">
       <sortCondition ref="A2:A157"/>
     </sortState>
   </autoFilter>
@@ -4891,9 +5338,6 @@
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",D1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156:A157">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://cwe.mitre.org/data/definitions/20.html" xr:uid="{A651DA48-A75D-4DE5-970C-E738AD290736}"/>
@@ -5021,17 +5465,17 @@
     <hyperlink ref="B153" r:id="rId123" display="http://cwe.mitre.org/data/definitions/1284.html" xr:uid="{E8610600-65E7-410B-8CC6-E52421A7E0DC}"/>
     <hyperlink ref="B154" r:id="rId124" display="http://cwe.mitre.org/data/definitions/1321.html" xr:uid="{88FC5613-97C5-404D-B90B-962980D5108E}"/>
     <hyperlink ref="B155" r:id="rId125" display="http://cwe.mitre.org/data/definitions/1333.html" xr:uid="{25BBD89A-12F9-4E40-B01C-36B16FA060A1}"/>
-    <hyperlink ref="G4" r:id="rId126" xr:uid="{A5956199-01B1-4F3D-8F64-63CE337B0DE1}"/>
-    <hyperlink ref="G10" r:id="rId127" xr:uid="{CF489412-09A7-4C71-B62D-8AB56242E9EB}"/>
-    <hyperlink ref="G12" r:id="rId128" xr:uid="{2C3D1D1D-5080-4813-8E2B-2D5C9141B7A6}"/>
-    <hyperlink ref="G39" r:id="rId129" xr:uid="{A7013EB2-03A6-433D-927A-E4E997B5A156}"/>
-    <hyperlink ref="G82" r:id="rId130" xr:uid="{10108AC0-A68F-497B-BF36-D48E734F9B6A}"/>
-    <hyperlink ref="G85" r:id="rId131" xr:uid="{7F7C5357-CDDE-4AFD-AA28-D37F986A86F7}"/>
-    <hyperlink ref="G101" r:id="rId132" xr:uid="{37DE79CC-163E-4647-A188-0DB7B742E3E6}"/>
-    <hyperlink ref="G104" r:id="rId133" xr:uid="{2ADBC34E-BCA6-4247-9933-F21015C02A49}"/>
-    <hyperlink ref="G128" r:id="rId134" xr:uid="{83C77A42-254E-4009-AE2E-6B03388FC3A3}"/>
-    <hyperlink ref="G154" r:id="rId135" xr:uid="{496FDC94-5CA9-4916-A1A2-82388841257B}"/>
-    <hyperlink ref="G155" r:id="rId136" xr:uid="{94C94D6D-6320-411A-A0B2-9A0CFB57A932}"/>
+    <hyperlink ref="H4" r:id="rId126" xr:uid="{A5956199-01B1-4F3D-8F64-63CE337B0DE1}"/>
+    <hyperlink ref="H10" r:id="rId127" xr:uid="{CF489412-09A7-4C71-B62D-8AB56242E9EB}"/>
+    <hyperlink ref="H12" r:id="rId128" xr:uid="{2C3D1D1D-5080-4813-8E2B-2D5C9141B7A6}"/>
+    <hyperlink ref="H39" r:id="rId129" xr:uid="{A7013EB2-03A6-433D-927A-E4E997B5A156}"/>
+    <hyperlink ref="H82" r:id="rId130" xr:uid="{10108AC0-A68F-497B-BF36-D48E734F9B6A}"/>
+    <hyperlink ref="H85" r:id="rId131" xr:uid="{7F7C5357-CDDE-4AFD-AA28-D37F986A86F7}"/>
+    <hyperlink ref="H101" r:id="rId132" xr:uid="{37DE79CC-163E-4647-A188-0DB7B742E3E6}"/>
+    <hyperlink ref="H104" r:id="rId133" xr:uid="{2ADBC34E-BCA6-4247-9933-F21015C02A49}"/>
+    <hyperlink ref="H128" r:id="rId134" xr:uid="{83C77A42-254E-4009-AE2E-6B03388FC3A3}"/>
+    <hyperlink ref="H154" r:id="rId135" xr:uid="{496FDC94-5CA9-4916-A1A2-82388841257B}"/>
+    <hyperlink ref="H155" r:id="rId136" xr:uid="{94C94D6D-6320-411A-A0B2-9A0CFB57A932}"/>
     <hyperlink ref="B5" r:id="rId137" display="https://cwe.mitre.org/data/definitions/73.html" xr:uid="{F217C923-DF15-4844-A323-A53AEB2198C3}"/>
     <hyperlink ref="B14" r:id="rId138" display="https://cwe.mitre.org/data/definitions/115.html" xr:uid="{13D0BA8C-6B5B-4980-9087-9795C4B0BBFC}"/>
     <hyperlink ref="B18" r:id="rId139" display="https://cwe.mitre.org/data/definitions/122.html" xr:uid="{ADA7EE88-D314-43DA-8245-29CDF035E7B7}"/>
@@ -5056,8 +5500,21 @@
     <hyperlink ref="B124" r:id="rId158" display="https://cwe.mitre.org/data/definitions/759.html" xr:uid="{26252464-34BA-448A-935A-FB79F2B0AB82}"/>
     <hyperlink ref="B130" r:id="rId159" display="https://cwe.mitre.org/data/definitions/789.html" xr:uid="{F6EEAEC2-D241-4810-8DF1-93A5CA88DCC8}"/>
     <hyperlink ref="B132" r:id="rId160" display="https://cwe.mitre.org/data/definitions/823.html" xr:uid="{2C60156C-DB8B-4C71-A20E-2C452AB160D9}"/>
+    <hyperlink ref="B158" r:id="rId161" display="https://cwe.mitre.org/data/definitions/16.html" xr:uid="{B777FB61-BF05-48B6-A71C-2CB5AF59786C}"/>
+    <hyperlink ref="B159" r:id="rId162" display="https://cwe.mitre.org/data/definitions/19.html" xr:uid="{7AD61BA9-614E-4CDA-83E9-FE3E6C36C900}"/>
+    <hyperlink ref="B160" r:id="rId163" display="https://cwe.mitre.org/data/definitions/21.html" xr:uid="{6B2BFD3F-BEA3-4404-B576-6F46DBEDE4EB}"/>
+    <hyperlink ref="B161" r:id="rId164" display="https://cwe.mitre.org/data/definitions/189.html" xr:uid="{8432A7EE-D1E8-401D-BA99-FF85347C453D}"/>
+    <hyperlink ref="B162" r:id="rId165" display="https://cwe.mitre.org/data/definitions/310.html" xr:uid="{DFDBBD29-04B4-4884-9D07-7F868EB2164D}"/>
+    <hyperlink ref="B163" r:id="rId166" display="https://cwe.mitre.org/data/definitions/355.html" xr:uid="{8D0FCBA3-7A6F-4BBB-AB1F-1C9728D2A896}"/>
+    <hyperlink ref="B164" r:id="rId167" display="https://cwe.mitre.org/data/definitions/391.html" xr:uid="{50D9D4BF-30F3-4824-ADCB-B9DCCEC466C4}"/>
+    <hyperlink ref="B165" r:id="rId168" display="https://cwe.mitre.org/data/definitions/399.html" xr:uid="{70D5C7A8-216B-492E-BD47-B97F7407ED7B}"/>
+    <hyperlink ref="B166" r:id="rId169" display="https://cwe.mitre.org/data/definitions/473.html" xr:uid="{EDCA4E80-80F7-4D79-9FB5-6EA7137CC61D}"/>
+    <hyperlink ref="B167" r:id="rId170" display="https://cwe.mitre.org/data/definitions/539.html" xr:uid="{10ADD3FE-9368-41B3-B9DC-8BD4E988B686}"/>
+    <hyperlink ref="B168" r:id="rId171" display="https://cwe.mitre.org/data/definitions/701.html" xr:uid="{26FBAD09-5EEB-4F7D-A6A5-69E23BD2F94F}"/>
+    <hyperlink ref="B169" r:id="rId172" display="https://cwe.mitre.org/data/definitions/840.html" xr:uid="{AAFAB972-189D-4D69-BF7D-281046E54455}"/>
+    <hyperlink ref="B170" r:id="rId173" display="https://cwe.mitre.org/data/definitions/1026.html" xr:uid="{AFF55490-48F0-4B39-B5FB-532C96FB0FA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId161"/>
+  <pageSetup orientation="portrait" r:id="rId174"/>
 </worksheet>
 </file>
--- a/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
+++ b/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkosc\Documents\SSVC Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36754E45-A6CF-4779-923C-F129673508A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24882A-9EB8-4DC2-88FF-4F7416D2C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBF29CAD-9845-4CA7-B904-11B051B72DD1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="277">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -680,9 +680,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Possible PoC? </t>
-  </si>
-  <si>
     <t>How could vulnerabilities containing this CWE be exploited?</t>
   </si>
   <si>
@@ -1646,7 +1643,22 @@
     <t>Prohibited - View</t>
   </si>
   <si>
-    <t>not enough info</t>
+    <t>Possible PoC</t>
+  </si>
+  <si>
+    <t>too broad</t>
+  </si>
+  <si>
+    <t>too broad; mapping use discouraged</t>
+  </si>
+  <si>
+    <t>too broad; not enough information</t>
+  </si>
+  <si>
+    <t>not enough information</t>
+  </si>
+  <si>
+    <t>Prohibited - Depreciated</t>
   </si>
 </sst>
 </file>
@@ -2118,14 +2130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="107" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
@@ -2142,22 +2154,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2165,15 +2177,17 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -2186,14 +2200,14 @@
         <v>6</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>49</v>
@@ -2210,12 +2224,12 @@
         <v>7</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
@@ -2231,30 +2245,34 @@
         <v>73</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>74</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2267,12 +2285,12 @@
         <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
@@ -2291,12 +2309,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="15" t="s">
         <v>33</v>
       </c>
@@ -2315,14 +2333,14 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>53</v>
@@ -2339,14 +2357,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>35</v>
@@ -2363,14 +2381,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>55</v>
@@ -2387,14 +2405,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>36</v>
@@ -2408,15 +2426,17 @@
         <v>94</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2426,30 +2446,34 @@
         <v>115</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>116</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2459,15 +2483,17 @@
         <v>119</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2477,15 +2503,17 @@
         <v>120</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2495,30 +2523,34 @@
         <v>122</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>125</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2528,15 +2560,17 @@
         <v>129</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2546,15 +2580,17 @@
         <v>131</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2564,15 +2600,17 @@
         <v>134</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2582,15 +2620,17 @@
         <v>178</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2600,15 +2640,17 @@
         <v>190</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2618,15 +2660,17 @@
         <v>191</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2636,15 +2680,17 @@
         <v>193</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2654,30 +2700,34 @@
         <v>194</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2687,30 +2737,34 @@
         <v>201</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>203</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2723,20 +2777,20 @@
         <v>10</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="H31" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2744,15 +2798,17 @@
         <v>212</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -2762,15 +2818,17 @@
         <v>252</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2780,45 +2838,51 @@
         <v>257</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>264</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>269</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F36" s="10"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -2828,15 +2892,17 @@
         <v>273</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2846,15 +2912,17 @@
         <v>275</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
@@ -2864,14 +2932,14 @@
         <v>11</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>57</v>
@@ -2885,30 +2953,34 @@
         <v>280</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>281</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -2918,30 +2990,34 @@
         <v>284</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>287</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -2951,15 +3027,17 @@
         <v>290</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -2972,14 +3050,14 @@
         <v>2</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E45" s="11"/>
       <c r="F45" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>59</v>
@@ -2993,15 +3071,17 @@
         <v>295</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3011,30 +3091,34 @@
         <v>305</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>306</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3047,14 +3131,14 @@
         <v>12</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E49" s="11"/>
       <c r="F49" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>60</v>
@@ -3068,15 +3152,17 @@
         <v>311</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -3089,20 +3175,20 @@
         <v>13</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="H51" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3113,17 +3199,17 @@
         <v>43</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E52" s="11"/>
       <c r="F52" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>74</v>
@@ -3134,30 +3220,34 @@
         <v>321</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>326</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -3167,15 +3257,17 @@
         <v>327</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -3188,14 +3280,14 @@
         <v>14</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>60</v>
@@ -3212,14 +3304,14 @@
         <v>15</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>61</v>
@@ -3233,15 +3325,17 @@
         <v>335</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -3251,30 +3345,34 @@
         <v>337</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>338</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E60" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F60" s="10"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -3284,15 +3382,17 @@
         <v>345</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -3302,15 +3402,17 @@
         <v>346</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F62" s="10"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -3320,15 +3422,17 @@
         <v>347</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F63" s="10"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -3341,14 +3445,14 @@
         <v>16</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E64" s="11"/>
       <c r="F64" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>62</v>
@@ -3362,15 +3466,17 @@
         <v>354</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F65" s="10"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -3380,15 +3486,17 @@
         <v>362</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E66" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F66" s="10"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -3398,15 +3506,17 @@
         <v>367</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -3416,15 +3526,17 @@
         <v>369</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -3434,15 +3546,17 @@
         <v>384</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -3452,30 +3566,34 @@
         <v>388</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>400</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -3485,15 +3603,17 @@
         <v>401</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F72" s="10"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -3503,15 +3623,17 @@
         <v>404</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F73" s="10"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -3521,30 +3643,34 @@
         <v>405</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>407</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F75" s="10"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -3554,15 +3680,17 @@
         <v>415</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E76" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F76" s="10"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -3572,15 +3700,17 @@
         <v>416</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -3593,14 +3723,14 @@
         <v>17</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E78" s="11"/>
       <c r="F78" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>63</v>
@@ -3617,20 +3747,20 @@
         <v>44</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E79" s="11"/>
       <c r="F79" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -3641,20 +3771,20 @@
         <v>45</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E80" s="11"/>
       <c r="F80" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3665,20 +3795,20 @@
         <v>18</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E81" s="11"/>
       <c r="F81" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G81" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,17 +3819,17 @@
         <v>19</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E82" s="11"/>
       <c r="F82" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>58</v>
@@ -3710,15 +3840,17 @@
         <v>436</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -3728,15 +3860,17 @@
         <v>441</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E84" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -3746,14 +3880,14 @@
         <v>20</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E85" s="11"/>
       <c r="F85" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>37</v>
@@ -3767,30 +3901,34 @@
         <v>451</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E86" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>459</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E87" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -3800,15 +3938,17 @@
         <v>470</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -3818,15 +3958,17 @@
         <v>476</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F89" s="10"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -3836,15 +3978,17 @@
         <v>494</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E90" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F90" s="10"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -3854,15 +3998,17 @@
         <v>502</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F91" s="10"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -3875,14 +4021,14 @@
         <v>21</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E92" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E92" s="11"/>
       <c r="F92" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>60</v>
@@ -3899,20 +4045,20 @@
         <v>22</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E93" s="11"/>
       <c r="F93" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -3923,20 +4069,20 @@
         <v>23</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E94" s="11"/>
       <c r="F94" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3944,15 +4090,17 @@
         <v>552</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E95" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F95" s="10"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -3962,15 +4110,17 @@
         <v>565</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E96" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -3980,30 +4130,34 @@
         <v>592</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E97" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>601</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E98" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F98" s="10"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -4013,30 +4167,34 @@
         <v>602</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>610</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F100" s="10"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -4049,14 +4207,14 @@
         <v>24</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E101" s="11"/>
       <c r="F101" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>36</v>
@@ -4070,15 +4228,17 @@
         <v>613</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E102" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F102" s="10"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -4088,15 +4248,17 @@
         <v>617</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E103" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F103" s="10"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -4109,14 +4271,14 @@
         <v>46</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E104" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E104" s="11"/>
       <c r="F104" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>65</v>
@@ -4130,15 +4292,17 @@
         <v>640</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E105" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F105" s="10"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -4148,15 +4312,17 @@
         <v>662</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E106" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F106" s="10"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -4166,15 +4332,17 @@
         <v>665</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E107" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F107" s="10"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -4184,15 +4352,17 @@
         <v>667</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F108" s="10"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -4202,15 +4372,17 @@
         <v>668</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F109" s="10"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -4220,15 +4392,17 @@
         <v>669</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F110" s="10"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -4238,15 +4412,17 @@
         <v>670</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E111" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F111" s="10"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -4256,15 +4432,17 @@
         <v>672</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F112" s="10"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -4274,15 +4452,17 @@
         <v>674</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E113" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F113" s="10"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -4292,15 +4472,17 @@
         <v>681</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E114" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F114" s="10"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -4310,15 +4492,17 @@
         <v>682</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E115" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F115" s="10"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -4328,15 +4512,17 @@
         <v>697</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -4346,30 +4532,34 @@
         <v>703</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E117" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>704</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F118" s="10"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -4379,15 +4569,17 @@
         <v>706</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E119" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -4397,15 +4589,17 @@
         <v>732</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F120" s="10"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -4415,30 +4609,34 @@
         <v>749</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E121" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>754</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E122" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F122" s="10"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -4448,15 +4646,17 @@
         <v>755</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E123" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F123" s="10"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -4466,30 +4666,34 @@
         <v>759</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E124" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>763</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F125" s="10"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -4499,15 +4703,17 @@
         <v>770</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E126" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F126" s="10"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -4517,15 +4723,17 @@
         <v>772</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E127" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F127" s="10"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -4538,14 +4746,14 @@
         <v>25</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E128" s="11"/>
       <c r="F128" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>36</v>
@@ -4559,15 +4767,17 @@
         <v>787</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E129" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F129" s="10"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -4577,15 +4787,17 @@
         <v>789</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E130" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
@@ -4595,20 +4807,20 @@
         <v>26</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E131" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E131" s="11"/>
       <c r="F131" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4616,30 +4828,34 @@
         <v>823</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E132" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>824</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E133" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F133" s="10"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -4649,15 +4865,17 @@
         <v>829</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E134" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F134" s="10"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -4667,15 +4885,17 @@
         <v>834</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E135" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F135" s="10"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -4685,15 +4905,17 @@
         <v>835</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E136" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F136" s="10"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -4703,15 +4925,17 @@
         <v>838</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E137" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F137" s="10"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -4721,15 +4945,17 @@
         <v>843</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E138" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F138" s="10"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -4739,15 +4965,17 @@
         <v>862</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E139" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F139" s="10"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -4757,15 +4985,17 @@
         <v>863</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E140" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F140" s="10"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -4775,15 +5005,17 @@
         <v>908</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E141" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F141" s="10"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -4793,15 +5025,17 @@
         <v>909</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E142" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F142" s="10"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -4811,15 +5045,17 @@
         <v>913</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E143" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F143" s="10"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -4832,14 +5068,14 @@
         <v>27</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E144" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E144" s="11"/>
       <c r="F144" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>60</v>
@@ -4853,15 +5089,17 @@
         <v>917</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E145" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="F145" s="10"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -4874,20 +5112,20 @@
         <v>28</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E146" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E146" s="11"/>
       <c r="F146" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4895,15 +5133,17 @@
         <v>920</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E147" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F147" s="10"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -4913,15 +5153,17 @@
         <v>922</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E148" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F148" s="10"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -4931,15 +5173,17 @@
         <v>924</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E149" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F149" s="10"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -4949,15 +5193,17 @@
         <v>1021</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E150" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F150" s="10"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -4970,17 +5216,17 @@
         <v>29</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E151" s="11"/>
       <c r="F151" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H151" s="11"/>
     </row>
@@ -4992,20 +5238,20 @@
         <v>30</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E152" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E152" s="11"/>
       <c r="F152" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -5013,15 +5259,17 @@
         <v>1284</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E153" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -5034,20 +5282,20 @@
         <v>31</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E154" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E154" s="11"/>
       <c r="F154" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G154" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H154" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -5058,14 +5306,14 @@
         <v>47</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E155" s="10"/>
+        <v>176</v>
+      </c>
+      <c r="E155" s="11"/>
       <c r="F155" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>67</v>
@@ -5076,49 +5324,53 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E156" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E157" s="10"/>
+        <v>175</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5126,16 +5378,16 @@
         <v>19</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5143,16 +5395,16 @@
         <v>21</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,16 +5412,16 @@
         <v>189</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -5177,16 +5429,16 @@
         <v>310</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5194,16 +5446,16 @@
         <v>355</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5211,16 +5463,16 @@
         <v>391</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5228,16 +5480,16 @@
         <v>399</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5245,16 +5497,16 @@
         <v>473</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -5262,16 +5514,16 @@
         <v>539</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5279,16 +5531,16 @@
         <v>701</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5296,16 +5548,16 @@
         <v>840</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5313,20 +5565,20 @@
         <v>1026</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H157" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
+  <autoFilter ref="A1:H170" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H157">
       <sortCondition ref="A2:A157"/>
     </sortState>

--- a/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
+++ b/Exploitation Status/CWE as PoC/possible-cwe-with-poc-examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkosc\Documents\SSVC Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24882A-9EB8-4DC2-88FF-4F7416D2C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16696468-BD37-46C2-A036-0D5B1C27B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EBF29CAD-9845-4CA7-B904-11B051B72DD1}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="306">
   <si>
     <t>CWE-ID</t>
   </si>
@@ -1659,6 +1660,93 @@
   </si>
   <si>
     <t>Prohibited - Depreciated</t>
+  </si>
+  <si>
+    <t>Improper Authorization</t>
+  </si>
+  <si>
+    <t>Use of Function with Inconsistent Implementations</t>
+  </si>
+  <si>
+    <t>Undefined Behavior for Input to API</t>
+  </si>
+  <si>
+    <t>Use of Obsolete Function</t>
+  </si>
+  <si>
+    <t>Active Debug Code</t>
+  </si>
+  <si>
+    <t>Use of Hard-coded, Security-relevant Constants</t>
+  </si>
+  <si>
+    <t>Dead Code</t>
+  </si>
+  <si>
+    <t>Return of Stack Variable Address</t>
+  </si>
+  <si>
+    <t>Assignment to Variable without Use</t>
+  </si>
+  <si>
+    <t>Assignment of a Fixed Address to a Pointer</t>
+  </si>
+  <si>
+    <t>Use of Potentially Dangerous Function</t>
+  </si>
+  <si>
+    <t>Incorrect Provision of Specified Functionality</t>
+  </si>
+  <si>
+    <t>Reliance on Undefined, Unspecified, or Implementation-Defined Behavior</t>
+  </si>
+  <si>
+    <t>Excessive Data Query Operations in a Large Data Table</t>
+  </si>
+  <si>
+    <t>Excessive Platform Resource Consumption within a Loop</t>
+  </si>
+  <si>
+    <t>Insufficient Technical Documentation</t>
+  </si>
+  <si>
+    <t>Insufficient Adherence to Expected Conventions</t>
+  </si>
+  <si>
+    <t>Floating Point Comparison with Incorrect Operator</t>
+  </si>
+  <si>
+    <t>Data Access from Outside Expected Data Manager Component</t>
+  </si>
+  <si>
+    <t>Synchronous Access of Remote Resource without Timeout</t>
+  </si>
+  <si>
+    <t>Use of Platform-Dependent Third Party Components</t>
+  </si>
+  <si>
+    <t>Use of Unmaintained Third Party Components</t>
+  </si>
+  <si>
+    <t>Excessive Reliance on Global Variables</t>
+  </si>
+  <si>
+    <t>Incomplete Documentation of Program Execution</t>
+  </si>
+  <si>
+    <t>Insufficient Documentation of Error Handling Techniques</t>
+  </si>
+  <si>
+    <t>Excessive Use of Unconditional Branching</t>
+  </si>
+  <si>
+    <t>Excessive Attack Surface</t>
+  </si>
+  <si>
+    <t>Improper Use of Validation Framework</t>
+  </si>
+  <si>
+    <t>quality weaknesses with indirect security impacts</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1782,12 +1870,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1795,6 +1887,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2128,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5426,10 +5538,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>310</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>260</v>
+        <v>285</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>175</v>
@@ -5437,16 +5549,16 @@
       <c r="D162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E162" s="21" t="s">
-        <v>257</v>
+      <c r="E162" s="22" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>175</v>
@@ -5460,10 +5572,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>175</v>
@@ -5472,15 +5584,15 @@
         <v>175</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>175</v>
@@ -5489,15 +5601,15 @@
         <v>175</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>175</v>
@@ -5505,16 +5617,16 @@
       <c r="D166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="22" t="s">
-        <v>275</v>
+      <c r="E166" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>175</v>
@@ -5528,10 +5640,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>701</v>
+        <v>539</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>175</v>
@@ -5539,16 +5651,16 @@
       <c r="D168" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E168" s="21" t="s">
-        <v>270</v>
+      <c r="E168" s="22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>840</v>
+        <v>701</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>175</v>
@@ -5557,39 +5669,518 @@
         <v>175</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
+        <v>840</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>1026</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B171" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C170" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E170" s="21" t="s">
+      <c r="C171" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E171" s="21" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>474</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>475</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>477</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>489</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>547</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>561</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>562</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>563</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>587</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>676</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>684</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>758</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1049</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1050</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1059</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1076</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1077</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E188" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1083</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1088</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1103</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E191" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1104</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E192" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1108</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1112</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C194" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1118</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E195" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1119</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C196" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1125</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E197" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1173</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C198" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E198" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H170" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
+  <autoFilter ref="A1:H171" xr:uid="{D3563F77-DA09-4E99-8452-FD823E66F078}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H157">
       <sortCondition ref="A2:A157"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",D1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://cwe.mitre.org/data/definitions/20.html" xr:uid="{A651DA48-A75D-4DE5-970C-E738AD290736}"/>
@@ -5756,17 +6347,45 @@
     <hyperlink ref="B159" r:id="rId162" display="https://cwe.mitre.org/data/definitions/19.html" xr:uid="{7AD61BA9-614E-4CDA-83E9-FE3E6C36C900}"/>
     <hyperlink ref="B160" r:id="rId163" display="https://cwe.mitre.org/data/definitions/21.html" xr:uid="{6B2BFD3F-BEA3-4404-B576-6F46DBEDE4EB}"/>
     <hyperlink ref="B161" r:id="rId164" display="https://cwe.mitre.org/data/definitions/189.html" xr:uid="{8432A7EE-D1E8-401D-BA99-FF85347C453D}"/>
-    <hyperlink ref="B162" r:id="rId165" display="https://cwe.mitre.org/data/definitions/310.html" xr:uid="{DFDBBD29-04B4-4884-9D07-7F868EB2164D}"/>
-    <hyperlink ref="B163" r:id="rId166" display="https://cwe.mitre.org/data/definitions/355.html" xr:uid="{8D0FCBA3-7A6F-4BBB-AB1F-1C9728D2A896}"/>
-    <hyperlink ref="B164" r:id="rId167" display="https://cwe.mitre.org/data/definitions/391.html" xr:uid="{50D9D4BF-30F3-4824-ADCB-B9DCCEC466C4}"/>
-    <hyperlink ref="B165" r:id="rId168" display="https://cwe.mitre.org/data/definitions/399.html" xr:uid="{70D5C7A8-216B-492E-BD47-B97F7407ED7B}"/>
-    <hyperlink ref="B166" r:id="rId169" display="https://cwe.mitre.org/data/definitions/473.html" xr:uid="{EDCA4E80-80F7-4D79-9FB5-6EA7137CC61D}"/>
-    <hyperlink ref="B167" r:id="rId170" display="https://cwe.mitre.org/data/definitions/539.html" xr:uid="{10ADD3FE-9368-41B3-B9DC-8BD4E988B686}"/>
-    <hyperlink ref="B168" r:id="rId171" display="https://cwe.mitre.org/data/definitions/701.html" xr:uid="{26FBAD09-5EEB-4F7D-A6A5-69E23BD2F94F}"/>
-    <hyperlink ref="B169" r:id="rId172" display="https://cwe.mitre.org/data/definitions/840.html" xr:uid="{AAFAB972-189D-4D69-BF7D-281046E54455}"/>
-    <hyperlink ref="B170" r:id="rId173" display="https://cwe.mitre.org/data/definitions/1026.html" xr:uid="{AFF55490-48F0-4B39-B5FB-532C96FB0FA7}"/>
+    <hyperlink ref="B163" r:id="rId165" display="https://cwe.mitre.org/data/definitions/310.html" xr:uid="{DFDBBD29-04B4-4884-9D07-7F868EB2164D}"/>
+    <hyperlink ref="B164" r:id="rId166" display="https://cwe.mitre.org/data/definitions/355.html" xr:uid="{8D0FCBA3-7A6F-4BBB-AB1F-1C9728D2A896}"/>
+    <hyperlink ref="B165" r:id="rId167" display="https://cwe.mitre.org/data/definitions/391.html" xr:uid="{50D9D4BF-30F3-4824-ADCB-B9DCCEC466C4}"/>
+    <hyperlink ref="B166" r:id="rId168" display="https://cwe.mitre.org/data/definitions/399.html" xr:uid="{70D5C7A8-216B-492E-BD47-B97F7407ED7B}"/>
+    <hyperlink ref="B167" r:id="rId169" display="https://cwe.mitre.org/data/definitions/473.html" xr:uid="{EDCA4E80-80F7-4D79-9FB5-6EA7137CC61D}"/>
+    <hyperlink ref="B168" r:id="rId170" display="https://cwe.mitre.org/data/definitions/539.html" xr:uid="{10ADD3FE-9368-41B3-B9DC-8BD4E988B686}"/>
+    <hyperlink ref="B169" r:id="rId171" display="https://cwe.mitre.org/data/definitions/701.html" xr:uid="{26FBAD09-5EEB-4F7D-A6A5-69E23BD2F94F}"/>
+    <hyperlink ref="B170" r:id="rId172" display="https://cwe.mitre.org/data/definitions/840.html" xr:uid="{AAFAB972-189D-4D69-BF7D-281046E54455}"/>
+    <hyperlink ref="B171" r:id="rId173" display="https://cwe.mitre.org/data/definitions/1026.html" xr:uid="{AFF55490-48F0-4B39-B5FB-532C96FB0FA7}"/>
+    <hyperlink ref="B162" r:id="rId174" display="https://cwe.mitre.org/data/definitions/285.html" xr:uid="{573DE5BD-4C7C-4E60-90F0-3F649B873D1B}"/>
+    <hyperlink ref="B172" r:id="rId175" display="https://cwe.mitre.org/data/definitions/474.html" xr:uid="{053A1F40-0524-4753-9499-49041FE8AD70}"/>
+    <hyperlink ref="B173" r:id="rId176" display="https://cwe.mitre.org/data/definitions/475.html" xr:uid="{49BDAF2F-6FC5-4750-9E5A-1E0B0D1A7A86}"/>
+    <hyperlink ref="B174" r:id="rId177" display="https://cwe.mitre.org/data/definitions/477.html" xr:uid="{57852AAC-7F9A-46A3-AC86-3AE601A3AB56}"/>
+    <hyperlink ref="B175" r:id="rId178" display="https://cwe.mitre.org/data/definitions/489.html" xr:uid="{82249767-8DB8-4F91-B558-6832EBB1D897}"/>
+    <hyperlink ref="B176" r:id="rId179" display="https://cwe.mitre.org/data/definitions/547.html" xr:uid="{43518FDE-1A3E-48BE-B997-1914A1E13D33}"/>
+    <hyperlink ref="B177" r:id="rId180" display="https://cwe.mitre.org/data/definitions/561.html" xr:uid="{CB03E584-C62B-46C2-8FCD-CE5F592A5EF6}"/>
+    <hyperlink ref="B178" r:id="rId181" display="https://cwe.mitre.org/data/definitions/562.html" xr:uid="{4563D695-0ED2-4D50-B915-6CE227E3DAC8}"/>
+    <hyperlink ref="B179" r:id="rId182" display="https://cwe.mitre.org/data/definitions/563.html" xr:uid="{A2107C3F-41A7-41F2-AC4D-74E8EE7EAFE6}"/>
+    <hyperlink ref="B180" r:id="rId183" display="https://cwe.mitre.org/data/definitions/587.html" xr:uid="{902AEFF1-6096-464A-A25A-132631C5099D}"/>
+    <hyperlink ref="B181" r:id="rId184" display="https://cwe.mitre.org/data/definitions/676.html" xr:uid="{C0578181-ECFF-46FC-8F38-30204AE7CD9A}"/>
+    <hyperlink ref="B182" r:id="rId185" display="https://cwe.mitre.org/data/definitions/684.html" xr:uid="{78B33FB4-6338-43C0-8EA8-FE3D07874AB6}"/>
+    <hyperlink ref="B183" r:id="rId186" display="https://cwe.mitre.org/data/definitions/758.html" xr:uid="{A2F2BC55-3339-42EB-AFB1-48F337BE52E2}"/>
+    <hyperlink ref="B184" r:id="rId187" display="https://cwe.mitre.org/data/definitions/1049.html" xr:uid="{940029E5-95E6-42ED-8F2B-E0E2844E20F0}"/>
+    <hyperlink ref="B185" r:id="rId188" display="https://cwe.mitre.org/data/definitions/1050.html" xr:uid="{C791566A-7064-4C96-BD62-FE8EFB225B61}"/>
+    <hyperlink ref="B186" r:id="rId189" display="https://cwe.mitre.org/data/definitions/1059.html" xr:uid="{9FE0DFCE-997A-4E01-A068-E6045AD5CAF4}"/>
+    <hyperlink ref="B187" r:id="rId190" display="https://cwe.mitre.org/data/definitions/1076.html" xr:uid="{B6370883-EC20-48EA-A17B-6F95574C5B89}"/>
+    <hyperlink ref="B188" r:id="rId191" display="https://cwe.mitre.org/data/definitions/1077.html" xr:uid="{7A8F0CA6-EED1-4599-ABE4-9F351456ADDD}"/>
+    <hyperlink ref="B189" r:id="rId192" display="https://cwe.mitre.org/data/definitions/1083.html" xr:uid="{36FDDCCA-BDD7-4D24-9404-D18F1F135F7A}"/>
+    <hyperlink ref="B190" r:id="rId193" display="https://cwe.mitre.org/data/definitions/1088.html" xr:uid="{F971B615-819F-4C68-93BD-46FF0B7E83A1}"/>
+    <hyperlink ref="B191" r:id="rId194" display="https://cwe.mitre.org/data/definitions/1103.html" xr:uid="{6C10A100-461C-4183-83E0-7C4ADF15B624}"/>
+    <hyperlink ref="B192" r:id="rId195" display="https://cwe.mitre.org/data/definitions/1104.html" xr:uid="{4B48A22B-9AFB-49BE-B328-A75490BE512F}"/>
+    <hyperlink ref="B193" r:id="rId196" display="https://cwe.mitre.org/data/definitions/1108.html" xr:uid="{CFF47680-14E1-4F91-B384-9D0A841847B7}"/>
+    <hyperlink ref="B194" r:id="rId197" display="https://cwe.mitre.org/data/definitions/1112.html" xr:uid="{8FFFF60B-33B6-40D7-B300-FE2D4B420BDB}"/>
+    <hyperlink ref="B195" r:id="rId198" display="https://cwe.mitre.org/data/definitions/1118.html" xr:uid="{CAB8A91C-EDAE-47AE-9C5B-CC82E2813EF1}"/>
+    <hyperlink ref="B196" r:id="rId199" display="https://cwe.mitre.org/data/definitions/1119.html" xr:uid="{4EB531D0-771B-4B8C-8771-796C7C93B7F2}"/>
+    <hyperlink ref="B197" r:id="rId200" display="https://cwe.mitre.org/data/definitions/1125.html" xr:uid="{64967907-EF3C-4BCA-9C3C-0D6A6F3050AB}"/>
+    <hyperlink ref="B198" r:id="rId201" display="https://cwe.mitre.org/data/definitions/1173.html" xr:uid="{5706E606-80CB-4C65-97FA-229432C08200}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId174"/>
+  <pageSetup orientation="portrait" r:id="rId202"/>
 </worksheet>
 </file>